--- a/medicine/Psychotrope/La_Dégustation_(film)/La_Dégustation_(film).xlsx
+++ b/medicine/Psychotrope/La_Dégustation_(film)/La_Dégustation_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation_(film)</t>
+          <t>La_Dégustation_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dégustation est un film français réalisé en 2022 par Ivan Calbérac, d'après sa propre pièce de théâtre homonyme créée en 2019.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation_(film)</t>
+          <t>La_Dégustation_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques est un caviste quelque peu misanthrope. Sa cave au bord de la faillite, il est contraint d'embaucher en réinsertion un jeune garçon, Steve, pour avoir droit à des abattements fiscaux. Parallèlement, il rencontre Hortense, une jeune femme « très catho » célibataire endurcie en quête d'amour. Quand cette dernière jette son dévolu sur lui, et cherche à faire une dégustation de vin, leur vie va basculer.
-Comme dans la pièce de théâtre dont le film est issu, tout oppose Jacques et Hortense. Pour qu'ils parviennent à s'entendre, il va falloir un déclic presque miraculeux : Steve - qui n'a pas de père - va être l'instrument grâce à qui ce déclic sera provoqué entre eux[1].
+Comme dans la pièce de théâtre dont le film est issu, tout oppose Jacques et Hortense. Pour qu'ils parviennent à s'entendre, il va falloir un déclic presque miraculeux : Steve - qui n'a pas de père - va être l'instrument grâce à qui ce déclic sera provoqué entre eux.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation_(film)</t>
+          <t>La_Dégustation_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
 Titre : La Dégustation
@@ -566,9 +582,9 @@
 Genre : comédie romantique
 Durée : 92 minutes
 Dates de sortie :
-France : 26 août 2022 (Festival du film francophone d'Angoulême)[2] ; 31 août 2022 (sortie nationale)
+France : 26 août 2022 (Festival du film francophone d'Angoulême) ; 31 août 2022 (sortie nationale)
 Belgique : 31 août 2022
-Suisse romande : 7 septembre 2022[3]</t>
+Suisse romande : 7 septembre 2022</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation_(film)</t>
+          <t>La_Dégustation_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
 Isabelle Carré : Hortense, maïeuticienne
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation_(film)</t>
+          <t>La_Dégustation_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,18 +653,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Au départ, il n'était pas vraiment question d'adapter la pièce au cinéma. Alors que la pièce reçoit ses Molières, Ivan Calbérac est invité à déjeuner par Bernard Campan et Isabelle Carré, qui lui proposent d'en faire un film. Le cinéaste déclare lors des tournées promotionnelles : « Comment résister à deux comédiens aussi persuasifs et aussi motivés ? L’envie m’était évidemment passée par la tête, mais c’est vraiment eux qui l’ont verbalisée les premiers »[4].
-Pour le scénario, le réalisateur reprend le script en l'adaptant pour le cinéma, notamment à travers la notion du hors-champ. Le but était de montrer tout ce que la pièce ne faisait que mentionner (l'histoire originale se cantonnant au seul lieu de la cave à vin). Puis, le réalisateur a enrichi le scénario de nouveaux personnages, contre cinq pour la pièce[4].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au départ, il n'était pas vraiment question d'adapter la pièce au cinéma. Alors que la pièce reçoit ses Molières, Ivan Calbérac est invité à déjeuner par Bernard Campan et Isabelle Carré, qui lui proposent d'en faire un film. Le cinéaste déclare lors des tournées promotionnelles : « Comment résister à deux comédiens aussi persuasifs et aussi motivés ? L’envie m’était évidemment passée par la tête, mais c’est vraiment eux qui l’ont verbalisée les premiers ».
+Pour le scénario, le réalisateur reprend le script en l'adaptant pour le cinéma, notamment à travers la notion du hors-champ. Le but était de montrer tout ce que la pièce ne faisait que mentionner (l'histoire originale se cantonnant au seul lieu de la cave à vin). Puis, le réalisateur a enrichi le scénario de nouveaux personnages, contre cinq pour la pièce.
 « Je trouvais beau que cette femme qui a l’air d’aller si bien, qui est si ouverte et si généreuse, soit exactement dans le même état que le personnage de Jacques joué par Bernard. Lui, c’est l’autre face de la médaille : il est taiseux, ermite, rustre, mais au fond, tous les deux sont aussi seuls l'un que l’autre ; sauf qu’ils le montrent d’une façon différente. Avec le vin, c’est in vino veritas : le fait qu’elle boive va libérer ses désirs. On sent bien qu’elle ne pense qu’à ça, qu’elle n’a envie que de ça ! »
-— Isabelle Carré[5]
-Tournage
-Pour le tournage, le réalisateur a opté pour un format « scope ».
-« Sur les comédies, j’aime bien laisser les personnages inter-réagir, sans couper la caméra. Je ne découpe pas trop. Cela accentue l’impression de réalisme et de sincérité »
-Les cinq acteurs et actrices de la pièce de théâtre ont été réembauchés pour faire ce film. Selon Isabelle Carré, la « condition pour le film, c’était qu’on se retrouve tous, qu’il n’y ait aucun laissé pour compte – ce qui arrive habituellement quand on adapte une pièce »[5]. Le film fut en grande partie tourné à Troyes entre mars et avril 2022[6]. Le tournage, de manière générale, s'est déroulé entre le 22 mars et le 7 mai 2022[7]. Le 23 avril 2022, une partie du tournage prit place dans la collégiale Notre-Dame de Poissy, dans les Yvelines, fermée pour l'occasion. Le tournage s'est étalé sur 8 heures, avec autour de l'actrice une soixantaine de figurants[7]. Les scènes de l'appartement d'Hortense furent tournées à Triel-sur-Seine entre les 19 et 20 avril 2022[7].
-Sortie et promotion
-Des cinémas ont proposé lors des avant-premières une dégustation de vin, par exemple début août 2022 à Pleurtuit[8].
-</t>
+— Isabelle Carré</t>
         </is>
       </c>
     </row>
@@ -656,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation_(film)</t>
+          <t>La_Dégustation_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,17 +687,133 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le tournage, le réalisateur a opté pour un format « scope ».
+« Sur les comédies, j’aime bien laisser les personnages inter-réagir, sans couper la caméra. Je ne découpe pas trop. Cela accentue l’impression de réalisme et de sincérité »
+Les cinq acteurs et actrices de la pièce de théâtre ont été réembauchés pour faire ce film. Selon Isabelle Carré, la « condition pour le film, c’était qu’on se retrouve tous, qu’il n’y ait aucun laissé pour compte – ce qui arrive habituellement quand on adapte une pièce ». Le film fut en grande partie tourné à Troyes entre mars et avril 2022. Le tournage, de manière générale, s'est déroulé entre le 22 mars et le 7 mai 2022. Le 23 avril 2022, une partie du tournage prit place dans la collégiale Notre-Dame de Poissy, dans les Yvelines, fermée pour l'occasion. Le tournage s'est étalé sur 8 heures, avec autour de l'actrice une soixantaine de figurants. Les scènes de l'appartement d'Hortense furent tournées à Triel-sur-Seine entre les 19 et 20 avril 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Dégustation_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_D%C3%A9gustation_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sortie et promotion</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des cinémas ont proposé lors des avant-premières une dégustation de vin, par exemple début août 2022 à Pleurtuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Dégustation_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_D%C3%A9gustation_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-En France, le site allociné donne une moyenne de 2,8⁄5, après avoir recensé 16 titres de presse[4].
-Pour 20 Minutes, il s'agit d'un film « tendre » qui « célèbre l'amour et le partage »[9]. Pour le site aVoir-aLire.co, c'est une « comédie romantique pleine d’humour et de délicatesse qui, sous couvert de réunir des âmes en peine, se fait plus grave qu’elle n’en a l’air. »[10]. Pour la critique de La Croix, l'adaptation au cinéma est jugée « convaincante »[11].
-Du côté des critiques plus négatives, on peut citer celle des Dernières Nouvelles d'Alsace pour qui « tout est lavé à l’eau tiède des sentiments, avec une naïveté parfois cruche. ». Pour La Voix du Nord, tout est trop lourd dans cette adaptation de la pièce éponyme : « l'approche comico-romantique, les parenthèses dramatiques, les problématiques sociétales (un jeune en réinsertion, un groupe de SDF, la PMA)… »[12]. Pour le Ouest-France, le film reste « mollasson, en dépit de l'alchimie entre Isabelle Carré et Bernard Campan ». Pour L'Obs, cette « adaptation reste fade, et sa mise en scène, illustrative »[13].
-Box-office
-Le jour de sa sortie, pour son premier jour d'exploitation au box-office français, La Dégustation réalise 32 250 entrées (dont 15 674 en avant-première), pour 421 copies. Il est suivi au classement par la comédie de science-fiction, action, Everything Everywhere All at Once (26 199)[14]. Au bout d'une première semaine d'exploitation, le film troque sa première place du premier jour du box-office pour la seconde avec 125 997 entrées, derrière Everything Everywhere All at Once (132 121) et devant Bullet Train (111 757)[15]. En seconde semaine, la comédie chute à la septième place avec 66 930 entrées supplémentaires, derrière Bullet Train (71 285) et devant Top Gun : Maverick (65 680)[16]. La semaine suivante, le film tombe à la dernière place du box-office avec 51 821 entrées supplémentaires pour 229 074 entrées cumulées, derrière Everything Everywhere All at Once et ses 55 329 entrées supplémentaires[17].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site allociné donne une moyenne de 2,8⁄5, après avoir recensé 16 titres de presse.
+Pour 20 Minutes, il s'agit d'un film « tendre » qui « célèbre l'amour et le partage ». Pour le site aVoir-aLire.co, c'est une « comédie romantique pleine d’humour et de délicatesse qui, sous couvert de réunir des âmes en peine, se fait plus grave qu’elle n’en a l’air. ». Pour la critique de La Croix, l'adaptation au cinéma est jugée « convaincante ».
+Du côté des critiques plus négatives, on peut citer celle des Dernières Nouvelles d'Alsace pour qui « tout est lavé à l’eau tiède des sentiments, avec une naïveté parfois cruche. ». Pour La Voix du Nord, tout est trop lourd dans cette adaptation de la pièce éponyme : « l'approche comico-romantique, les parenthèses dramatiques, les problématiques sociétales (un jeune en réinsertion, un groupe de SDF, la PMA)… ». Pour le Ouest-France, le film reste « mollasson, en dépit de l'alchimie entre Isabelle Carré et Bernard Campan ». Pour L'Obs, cette « adaptation reste fade, et sa mise en scène, illustrative ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Dégustation_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_D%C3%A9gustation_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jour de sa sortie, pour son premier jour d'exploitation au box-office français, La Dégustation réalise 32 250 entrées (dont 15 674 en avant-première), pour 421 copies. Il est suivi au classement par la comédie de science-fiction, action, Everything Everywhere All at Once (26 199). Au bout d'une première semaine d'exploitation, le film troque sa première place du premier jour du box-office pour la seconde avec 125 997 entrées, derrière Everything Everywhere All at Once (132 121) et devant Bullet Train (111 757). En seconde semaine, la comédie chute à la septième place avec 66 930 entrées supplémentaires, derrière Bullet Train (71 285) et devant Top Gun : Maverick (65 680). La semaine suivante, le film tombe à la dernière place du box-office avec 51 821 entrées supplémentaires pour 229 074 entrées cumulées, derrière Everything Everywhere All at Once et ses 55 329 entrées supplémentaires.
 </t>
         </is>
       </c>
